--- a/pdrreport/Mass and Power Budget.xlsx
+++ b/pdrreport/Mass and Power Budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" state="visible" r:id="rId2"/>
@@ -596,23 +596,23 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,7 +758,7 @@
         <v>6.6825</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -864,6 +864,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -883,6 +884,7 @@
         <v>160</v>
       </c>
       <c r="F10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -899,6 +901,7 @@
         <f aca="false">E11/E29</f>
         <v>0.017567899933242</v>
       </c>
+      <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
@@ -909,6 +912,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -928,6 +932,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -947,8 +952,9 @@
         <v>140</v>
       </c>
       <c r="F14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -966,6 +972,11 @@
         <v>25</v>
       </c>
       <c r="F15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="1" t="n">
+        <f aca="false">505.6+431.2</f>
+        <v>936.8</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -985,8 +996,13 @@
         <v>4</v>
       </c>
       <c r="F16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="0"/>
+      <c r="L16" s="1" t="n">
+        <f aca="false">L15*8</f>
+        <v>7494.4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1004,8 +1020,9 @@
         <v>18</v>
       </c>
       <c r="F17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1023,8 +1040,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1042,6 +1060,7 @@
         <v>2.8</v>
       </c>
       <c r="F19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -1058,6 +1077,7 @@
         <f aca="false">E20/E29</f>
         <v>0.0250122975299533</v>
       </c>
+      <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
@@ -1068,6 +1088,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -1087,6 +1108,7 @@
         <v>35</v>
       </c>
       <c r="F22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1106,6 +1128,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -1122,6 +1145,7 @@
         <f aca="false">E24/E29</f>
         <v>0.0148229155686729</v>
       </c>
+      <c r="K24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -1274,15 +1298,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="3.91326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
